--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col8a1</t>
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H2">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I2">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J2">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>14.17065671122956</v>
+        <v>18.200742323868</v>
       </c>
       <c r="R2">
-        <v>127.535910401066</v>
+        <v>163.806680914812</v>
       </c>
       <c r="S2">
-        <v>0.01860189020852797</v>
+        <v>0.02901733830049184</v>
       </c>
       <c r="T2">
-        <v>0.02056406614281267</v>
+        <v>0.03043370187078525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H3">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I3">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J3">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>4.973180383790778</v>
+        <v>6.412188913242556</v>
       </c>
       <c r="R3">
-        <v>44.758623454117</v>
+        <v>57.709700219183</v>
       </c>
       <c r="S3">
-        <v>0.006528318155726044</v>
+        <v>0.01022291572680647</v>
       </c>
       <c r="T3">
-        <v>0.007216942195160863</v>
+        <v>0.01072190585704122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H4">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I4">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J4">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.1051684078055556</v>
+        <v>0.2554250185545556</v>
       </c>
       <c r="R4">
-        <v>0.9465156702500001</v>
+        <v>2.298825166991</v>
       </c>
       <c r="S4">
-        <v>0.0001380550820805886</v>
+        <v>0.0004072226309191441</v>
       </c>
       <c r="T4">
-        <v>0.0001526174924930553</v>
+        <v>0.0004270995504856482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H5">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I5">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J5">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>6.460138262214166</v>
+        <v>2.593517936832833</v>
       </c>
       <c r="R5">
-        <v>38.76082957328499</v>
+        <v>15.561107620997</v>
       </c>
       <c r="S5">
-        <v>0.008480255018131167</v>
+        <v>0.004134830658131003</v>
       </c>
       <c r="T5">
-        <v>0.006249849635202506</v>
+        <v>0.002891103753960525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H6">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I6">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J6">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>0.745309490428</v>
+        <v>0.2436383885522223</v>
       </c>
       <c r="R6">
-        <v>6.707785413852</v>
+        <v>2.19274549697</v>
       </c>
       <c r="S6">
-        <v>0.0009783714047161204</v>
+        <v>0.000388431274824183</v>
       </c>
       <c r="T6">
-        <v>0.001081572574253515</v>
+        <v>0.0004073909706283387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>369.913818</v>
       </c>
       <c r="I7">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J7">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>375.2079423601454</v>
+        <v>373.765360673016</v>
       </c>
       <c r="R7">
-        <v>3376.871481241308</v>
+        <v>3363.888246057144</v>
       </c>
       <c r="S7">
-        <v>0.4925372967097663</v>
+        <v>0.5958919544414133</v>
       </c>
       <c r="T7">
-        <v>0.5444914163990915</v>
+        <v>0.6249780011132906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>369.913818</v>
       </c>
       <c r="I8">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J8">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
         <v>131.6789205195607</v>
@@ -948,10 +948,10 @@
         <v>1185.110284676046</v>
       </c>
       <c r="S8">
-        <v>0.1728555614745262</v>
+        <v>0.2099349419803027</v>
       </c>
       <c r="T8">
-        <v>0.1910888172904912</v>
+        <v>0.2201820639207572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>369.913818</v>
       </c>
       <c r="I9">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J9">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>2.784629018833333</v>
+        <v>5.245336837704667</v>
       </c>
       <c r="R9">
-        <v>25.0616611695</v>
+        <v>47.208031539342</v>
       </c>
       <c r="S9">
-        <v>0.00365539610022238</v>
+        <v>0.008362610206294146</v>
       </c>
       <c r="T9">
-        <v>0.004040976822274287</v>
+        <v>0.008770797074645132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>369.913818</v>
       </c>
       <c r="I10">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J10">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>171.050307273805</v>
+        <v>53.25975994951899</v>
       </c>
       <c r="R10">
-        <v>1026.30184364283</v>
+        <v>319.5585596971139</v>
       </c>
       <c r="S10">
-        <v>0.2245385729738851</v>
+        <v>0.08491172748660397</v>
       </c>
       <c r="T10">
-        <v>0.1654823251646725</v>
+        <v>0.0593708991706949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>369.913818</v>
       </c>
       <c r="I11">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J11">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>19.734162362664</v>
+        <v>5.003289896126667</v>
       </c>
       <c r="R11">
-        <v>177.607461263976</v>
+        <v>45.02960906514</v>
       </c>
       <c r="S11">
-        <v>0.02590513122349774</v>
+        <v>0.007976716166183614</v>
       </c>
       <c r="T11">
-        <v>0.02863767208313207</v>
+        <v>0.008366067183542826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H12">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I12">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J12">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>18.68145941964467</v>
+        <v>0.06956080372800001</v>
       </c>
       <c r="R12">
-        <v>112.088756517868</v>
+        <v>0.6260472335520001</v>
       </c>
       <c r="S12">
-        <v>0.0245232429336825</v>
+        <v>0.0001109003873749984</v>
       </c>
       <c r="T12">
-        <v>0.01807334573964664</v>
+        <v>0.0001163135395732727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H13">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I13">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J13">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>6.556242905294333</v>
+        <v>0.02450652871866667</v>
       </c>
       <c r="R13">
-        <v>39.337457431766</v>
+        <v>0.220558758468</v>
       </c>
       <c r="S13">
-        <v>0.008606412052031394</v>
+        <v>3.907061710706887E-05</v>
       </c>
       <c r="T13">
-        <v>0.006342825906625216</v>
+        <v>4.097769066999441E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H14">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I14">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J14">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>0.1386456099166667</v>
+        <v>0.0009762002706666667</v>
       </c>
       <c r="R14">
-        <v>0.8318736595</v>
+        <v>0.008785802436000001</v>
       </c>
       <c r="S14">
-        <v>0.0001820007686390739</v>
+        <v>1.556350449828598E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001341324565185261</v>
+        <v>1.632317378873556E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H15">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I15">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J15">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>8.516529138357498</v>
+        <v>0.009912078801999999</v>
       </c>
       <c r="R15">
-        <v>34.06611655342999</v>
+        <v>0.05947247281199999</v>
       </c>
       <c r="S15">
-        <v>0.01117968935511031</v>
+        <v>1.58027699497502E-05</v>
       </c>
       <c r="T15">
-        <v>0.005492867631010728</v>
+        <v>1.104941200792699E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.022948</v>
+      </c>
+      <c r="H16">
+        <v>0.068844</v>
+      </c>
+      <c r="I16">
+        <v>0.0001688146572808784</v>
+      </c>
+      <c r="J16">
+        <v>0.0001715299534517578</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.12173</v>
+      </c>
+      <c r="O16">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P16">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q16">
+        <v>0.0009311533466666667</v>
+      </c>
+      <c r="R16">
+        <v>0.008380380120000001</v>
+      </c>
+      <c r="S16">
+        <v>1.484532399232366E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.556993821690171E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.455549</v>
+      </c>
+      <c r="H17">
+        <v>12.911098</v>
+      </c>
+      <c r="I17">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J17">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.031236</v>
+      </c>
+      <c r="N17">
+        <v>9.093708000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.6569357730026921</v>
+      </c>
+      <c r="P17">
+        <v>0.6780946256479073</v>
+      </c>
+      <c r="Q17">
+        <v>19.568292528564</v>
+      </c>
+      <c r="R17">
+        <v>117.409755171384</v>
+      </c>
+      <c r="S17">
+        <v>0.03119761568843836</v>
+      </c>
+      <c r="T17">
+        <v>0.02181360043224393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.455549</v>
+      </c>
+      <c r="H18">
+        <v>12.911098</v>
+      </c>
+      <c r="I18">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J18">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.203747</v>
+      </c>
+      <c r="O18">
+        <v>0.2314409052885859</v>
+      </c>
+      <c r="P18">
+        <v>0.2388952474211406</v>
+      </c>
+      <c r="Q18">
+        <v>6.893981914034333</v>
+      </c>
+      <c r="R18">
+        <v>41.36389148420599</v>
+      </c>
+      <c r="S18">
+        <v>0.01099103552357161</v>
+      </c>
+      <c r="T18">
+        <v>0.007685012202283183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.455549</v>
+      </c>
+      <c r="H19">
+        <v>12.911098</v>
+      </c>
+      <c r="I19">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J19">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04253966666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.127619</v>
+      </c>
+      <c r="O19">
+        <v>0.009219285072143351</v>
+      </c>
+      <c r="P19">
+        <v>0.009516223528461688</v>
+      </c>
+      <c r="Q19">
+        <v>0.2746169026103333</v>
+      </c>
+      <c r="R19">
+        <v>1.647701415662</v>
+      </c>
+      <c r="S19">
+        <v>0.0004378201407547742</v>
+      </c>
+      <c r="T19">
+        <v>0.0003061270357001279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.455549</v>
+      </c>
+      <c r="H20">
+        <v>12.911098</v>
+      </c>
+      <c r="I20">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J20">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4319364999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.8638729999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.09361017700884301</v>
+      </c>
+      <c r="P20">
+        <v>0.06441680759293508</v>
+      </c>
+      <c r="Q20">
+        <v>2.7883872406385</v>
+      </c>
+      <c r="R20">
+        <v>11.153548962554</v>
+      </c>
+      <c r="S20">
+        <v>0.004445509662991978</v>
+      </c>
+      <c r="T20">
+        <v>0.002072221853418194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6.139289</v>
-      </c>
-      <c r="H16">
-        <v>12.278578</v>
-      </c>
-      <c r="I16">
-        <v>0.04578115164892033</v>
-      </c>
-      <c r="J16">
-        <v>0.03099374420041592</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.160044</v>
-      </c>
-      <c r="N16">
-        <v>0.480132</v>
-      </c>
-      <c r="O16">
-        <v>0.02817330916767092</v>
-      </c>
-      <c r="P16">
-        <v>0.03066981712400039</v>
-      </c>
-      <c r="Q16">
-        <v>0.9825563687159999</v>
-      </c>
-      <c r="R16">
-        <v>5.895338212296</v>
-      </c>
-      <c r="S16">
-        <v>0.00128980653945706</v>
-      </c>
-      <c r="T16">
-        <v>0.0009505724666148038</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.455549</v>
+      </c>
+      <c r="H21">
+        <v>12.911098</v>
+      </c>
+      <c r="I21">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J21">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.12173</v>
+      </c>
+      <c r="O21">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P21">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q21">
+        <v>0.2619446599233333</v>
+      </c>
+      <c r="R21">
+        <v>1.57166795954</v>
+      </c>
+      <c r="S21">
+        <v>0.0004176168574748169</v>
+      </c>
+      <c r="T21">
+        <v>0.000292000752676142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.445693</v>
+      </c>
+      <c r="I22">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J22">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.031236</v>
+      </c>
+      <c r="N22">
+        <v>9.093708000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.6569357730026921</v>
+      </c>
+      <c r="P22">
+        <v>0.6780946256479073</v>
+      </c>
+      <c r="Q22">
+        <v>0.450333555516</v>
+      </c>
+      <c r="R22">
+        <v>4.053001999644001</v>
+      </c>
+      <c r="S22">
+        <v>0.0007179641849736385</v>
+      </c>
+      <c r="T22">
+        <v>0.000753008692014273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.445693</v>
+      </c>
+      <c r="I23">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J23">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.2314409052885859</v>
+      </c>
+      <c r="P23">
+        <v>0.2388952474211406</v>
+      </c>
+      <c r="Q23">
+        <v>0.1586541790745556</v>
+      </c>
+      <c r="R23">
+        <v>1.427887611671</v>
+      </c>
+      <c r="S23">
+        <v>0.0002529414407980484</v>
+      </c>
+      <c r="T23">
+        <v>0.0002652877503890218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.445693</v>
+      </c>
+      <c r="I24">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J24">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04253966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.127619</v>
+      </c>
+      <c r="O24">
+        <v>0.009219285072143351</v>
+      </c>
+      <c r="P24">
+        <v>0.009516223528461688</v>
+      </c>
+      <c r="Q24">
+        <v>0.006319877218555555</v>
+      </c>
+      <c r="R24">
+        <v>0.05687889496700001</v>
+      </c>
+      <c r="S24">
+        <v>1.007574372545839E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.056755025190709E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.445693</v>
+      </c>
+      <c r="I25">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J25">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4319364999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.8638729999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.09361017700884301</v>
+      </c>
+      <c r="P25">
+        <v>0.06441680759293508</v>
+      </c>
+      <c r="Q25">
+        <v>0.06417035816483332</v>
+      </c>
+      <c r="R25">
+        <v>0.3850221489889999</v>
+      </c>
+      <c r="S25">
+        <v>0.0001023064311663183</v>
+      </c>
+      <c r="T25">
+        <v>7.15334028535385E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.445693</v>
+      </c>
+      <c r="I26">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J26">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.12173</v>
+      </c>
+      <c r="O26">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P26">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q26">
+        <v>0.006028245432222222</v>
+      </c>
+      <c r="R26">
+        <v>0.05425420889</v>
+      </c>
+      <c r="S26">
+        <v>9.610796853917128E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.00799088863308E-05</v>
       </c>
     </row>
   </sheetData>
